--- a/data/trans_orig/P33_1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Provincia-trans_orig.xlsx
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>7.13775285560673</v>
+        <v>7.137752855606732</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>6.983871308130185</v>
+        <v>6.983871308130184</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>7.061149536920228</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.99480814671073</v>
+        <v>7.006427436083071</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.867653058444346</v>
+        <v>6.875244600635934</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.978355808689785</v>
+        <v>6.97292951371212</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.273480552438945</v>
+        <v>7.265164481553914</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.103465770403198</v>
+        <v>7.113869847848626</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.15024909170562</v>
+        <v>7.153855690161043</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.113241784795818</v>
+        <v>7.114177601264204</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.151988381533536</v>
+        <v>7.152688009292152</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.171499407443919</v>
+        <v>7.164557383131437</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.362043285136808</v>
+        <v>7.368764503861452</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.365455509873712</v>
+        <v>7.372247311757183</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.332175032039051</v>
+        <v>7.326449637941225</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>6.904386701294024</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.982036474061818</v>
+        <v>6.98203647406182</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.949907884498716</v>
+        <v>6.941328882221483</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.79468466351808</v>
+        <v>6.79784587215315</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.900767188167429</v>
+        <v>6.89221870188164</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.201081819385123</v>
+        <v>7.196989151921879</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.019786704193884</v>
+        <v>7.019235943000186</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.067002996425829</v>
+        <v>7.063682000298801</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         <v>7.015094424137915</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6.888666712223884</v>
+        <v>6.888666712223885</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>6.949000012258577</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.857808070942067</v>
+        <v>6.864434220718995</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.752040500825863</v>
+        <v>6.760403481407458</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.846592252852705</v>
+        <v>6.850332697843434</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.170493966963222</v>
+        <v>7.161719992537934</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.012852617758066</v>
+        <v>7.038624736636589</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.049486306134172</v>
+        <v>7.05220584535062</v>
       </c>
     </row>
     <row r="16">
@@ -783,10 +783,10 @@
         <v>6.813809432727548</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>6.58042876129563</v>
+        <v>6.580428761295629</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.691395873983657</v>
+        <v>6.691395873983658</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.702593813002818</v>
+        <v>6.699739379078103</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.48490287658151</v>
+        <v>6.480804697027942</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.616107061740114</v>
+        <v>6.606039747963634</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.930474709699709</v>
+        <v>6.935751466532681</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.699115815133394</v>
+        <v>6.706902353413301</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.776325086402672</v>
+        <v>6.769235644998863</v>
       </c>
     </row>
     <row r="19">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.910273779697012</v>
+        <v>6.909891449916862</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.67693978719404</v>
+        <v>6.675145964819059</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.831352811145822</v>
+        <v>6.831567677689403</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.126274406244336</v>
+        <v>7.127834561004072</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.924306843134129</v>
+        <v>6.936984859144451</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.992306209315421</v>
+        <v>6.992540256353672</v>
       </c>
     </row>
     <row r="22">
@@ -893,7 +893,7 @@
         <v>6.925111516260868</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>6.821920882979048</v>
+        <v>6.821920882979047</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>6.871969533433308</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.825006173271192</v>
+        <v>6.822077314263422</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.734491765723219</v>
+        <v>6.730799701361686</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.808429390740929</v>
+        <v>6.812686101960677</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.028701476452013</v>
+        <v>7.01731629688842</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.901079824218139</v>
+        <v>6.899836243390713</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.937075918972786</v>
+        <v>6.941622323481331</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +948,10 @@
         <v>7.432566113991732</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>7.32082158722966</v>
+        <v>7.320821587229661</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7.375618008214524</v>
+        <v>7.375618008214522</v>
       </c>
     </row>
     <row r="26">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.372066796924056</v>
+        <v>7.368388653379417</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7.268961474078275</v>
+        <v>7.267891314864388</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.337816063713964</v>
+        <v>7.33870937295245</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.490105241749654</v>
+        <v>7.485052506098554</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.372747032789523</v>
+        <v>7.374447272924962</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.414962636601145</v>
+        <v>7.418187881053217</v>
       </c>
     </row>
     <row r="28">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>7.126419049499287</v>
+        <v>7.126419049499288</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>7.005746247991383</v>
+        <v>7.005746247991382</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>7.064413261597092</v>
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.08490770125211</v>
+        <v>7.088979830651822</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.970102600844934</v>
+        <v>6.971439956121181</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.040778996834971</v>
+        <v>7.037436578475653</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.164898046455233</v>
+        <v>7.166555556891459</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.04268076203464</v>
+        <v>7.04144963383848</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.092185061815448</v>
+        <v>7.091153603220074</v>
       </c>
     </row>
     <row r="31">
